--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,46 +487,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Abnormal compass function</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GPS signal detected</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,42 +546,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -596,90 +596,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>When exceeding nnn,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>19</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>When exceeding nnn,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7-9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>21</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0-9</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>21</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0-8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,46 +487,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Abnormal compass function</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>GPS signal detected</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,42 +546,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -596,15 +596,90 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7-14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>When exceeding nnn,</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>7-9</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0-8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>False</t>
         </is>
